--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29886B-5221-425D-8832-80B67374154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F1E9CB-2E5B-4EFC-80CA-6CC4937CD48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12000</v>
+        <v>10200</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13000</v>
+        <v>10300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F1E9CB-2E5B-4EFC-80CA-6CC4937CD48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA42707-9ACE-4071-847F-CC5A5DD052A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
+    <sheet name="Or_Contest_002" sheetId="2" r:id="rId2"/>
+    <sheet name="Or_Contest_003" sheetId="3" r:id="rId3"/>
+    <sheet name="Or_Contest_004" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="52">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -177,32 +180,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ベリーの扱いに長けたものを決めるコンテストです。
-ベリー系お菓子で優勝目指そう☆</t>
-    <rPh sb="4" eb="5">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ユウショウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>メザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>魔法の属性ごとに最低2種類ずつ、クリアできるようにコンテスト設定しておく</t>
     <rPh sb="0" eb="2">
       <t>マホウ</t>
@@ -280,16 +257,196 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プラトンアカデミーコンテスト
-オランジーナ国でも権威のある賞でハイクラス</t>
+    <t>Or_Contest_050</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_060</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_070</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク賞</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光のお菓子No.1コンテスト＜ノービス＞</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光のお菓子No.1コンテスト＜上級＞</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの王様</t>
+    <rPh sb="4" eb="6">
+      <t>オウサマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートの王者選手権</t>
+    <rPh sb="7" eb="9">
+      <t>オウジャ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センシュケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクのおいしさを決めるコンテスト
+お手軽だが奥深い味わいを目指そう</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オクブカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光魔法のお菓子コンテスト
+かわいいお菓子を見せてね☆</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カシ</t>
+    </rPh>
     <rPh sb="21" eb="22">
-      <t>コク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケンイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ショウ</t>
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光魔法のお菓子コンテスト～上級編～
+キラキラファンタジックなお菓子を期待しているぞ！</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジョウキュウヘン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とろける、夢見るチョコレートのコンテスト
+はたして、夢を見せてくれるのか・・？</t>
+    <rPh sb="5" eb="7">
+      <t>ユメミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリーの扱いに長けたものを決めるコンテスト。
+ベリー系お菓子で優勝目指そう☆</t>
+    <rPh sb="4" eb="5">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ユウショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真のケーキ王者を決めるコンテスト
+ケーキはパティシエのメインとなるお菓子。
+自信のあるものを見せてください！</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウジャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -677,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -736,27 +893,27 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A6" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -889,10 +1046,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -904,7 +1061,7 @@
         <v>500</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -928,7 +1085,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -949,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1000,19 +1157,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1030,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1051,6 +1208,2124 @@
         <v>23</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
+        <v>1001</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>20100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>20200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>1200</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>99</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="B6">
+        <v>20400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>20500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B8">
+        <v>20600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B9">
+        <v>20700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B10">
+        <v>20800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+2000</f>
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>30000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>30100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>30200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>1200</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>99</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>30400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>30500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>30600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>30700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>30800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+3000</f>
+        <v>3000</v>
+      </c>
+      <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+3000</f>
+        <v>3001</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3002</v>
+      </c>
+      <c r="B4">
+        <v>40100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3003</v>
+      </c>
+      <c r="B5">
+        <v>40200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>1200</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>99</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3004</v>
+      </c>
+      <c r="B6">
+        <v>40400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3005</v>
+      </c>
+      <c r="B7">
+        <v>40500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3006</v>
+      </c>
+      <c r="B8">
+        <v>40600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3007</v>
+      </c>
+      <c r="B9">
+        <v>40700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>3008</v>
+      </c>
+      <c r="B10">
+        <v>40800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA42707-9ACE-4071-847F-CC5A5DD052A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAA8AE-5DD9-4730-926A-B30DB965D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3135" yWindow="405" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -246,10 +246,6 @@
     <rPh sb="4" eb="5">
       <t>ショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Or_Contest_040</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -448,6 +444,134 @@
     <rPh sb="46" eb="47">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contest_Endmonth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contest_Endday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_200</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_210</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_220</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_230</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_250</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_260</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_270</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エデンコンテスト3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エデンコンテスト2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_400</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_410</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_420</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_430</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_440</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_450</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_460</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_470</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_610</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_620</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_630</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_640</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_650</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_660</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_670</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -834,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -846,13 +970,13 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="17" width="6.75" customWidth="1"/>
-    <col min="18" max="18" width="25.125" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,40 +1002,46 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
@@ -932,46 +1062,52 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>99</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1000</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -992,46 +1128,52 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>99</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>20</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1052,46 +1194,52 @@
         <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
         <v>500</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>99</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1109,345 +1257,381 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
         <v>1200</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>99</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>100</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
         <v>1500</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>99</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>100</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
         <v>1500</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>99</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>100</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
         <v>1500</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>99</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>100</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
         <v>1500</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>99</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>100</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
         <v>1500</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>99</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>100</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1</v>
       </c>
     </row>
@@ -1460,633 +1644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
-  <dimension ref="A1:S10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="17" width="6.75" customWidth="1"/>
-    <col min="18" max="18" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>ROW()-2+1000</f>
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>3000</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>99</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
-        <v>1001</v>
-      </c>
-      <c r="B3">
-        <v>20000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>99</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>1002</v>
-      </c>
-      <c r="B4">
-        <v>20100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>99</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>100</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="B5">
-        <v>20200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>1200</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>99</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>100</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="B6">
-        <v>20400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="I6">
-        <v>1500</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>99</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="B7">
-        <v>20500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>90</v>
-      </c>
-      <c r="I7">
-        <v>1500</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>99</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>100</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="B8">
-        <v>20600</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>90</v>
-      </c>
-      <c r="I8">
-        <v>1500</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>99</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>100</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="B9">
-        <v>20700</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>90</v>
-      </c>
-      <c r="I9">
-        <v>1500</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>99</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="B10">
-        <v>20800</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>90</v>
-      </c>
-      <c r="I10">
-        <v>1500</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>99</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -2098,13 +1656,13 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="17" width="6.75" customWidth="1"/>
-    <col min="18" max="18" width="25.125" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2130,40 +1688,732 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>3000</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>99</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
+        <v>1001</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>20100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>20200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>1200</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="B6">
+        <v>20300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>1500</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>99</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>20400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>1500</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B8">
+        <v>20500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>1500</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B9">
+        <v>20600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>1500</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B10">
+        <v>20700</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>1500</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+2000</f>
         <v>2000</v>
@@ -2175,55 +2425,61 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>99</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1000</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
         <v>2001</v>
@@ -2235,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2244,46 +2500,52 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>99</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>20</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -2295,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -2304,46 +2566,52 @@
         <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
         <v>500</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>99</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -2355,351 +2623,387 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
         <v>1200</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>99</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>100</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>30400</v>
+        <v>30300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
         <v>1500</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>99</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>100</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>30500</v>
+        <v>30400</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
         <v>1500</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>99</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>100</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>30600</v>
+        <v>30500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
         <v>1500</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>99</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>100</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>30700</v>
+        <v>30600</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
         <v>1500</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>99</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>100</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>30800</v>
+        <v>30700</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
         <v>1500</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>99</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>100</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1</v>
       </c>
     </row>
@@ -2712,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2724,13 +3028,13 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="17" width="6.75" customWidth="1"/>
-    <col min="18" max="18" width="25.125" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2756,40 +3060,46 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+3000</f>
         <v>3000</v>
@@ -2801,55 +3111,61 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>99</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1000</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+3000</f>
         <v>3001</v>
@@ -2861,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2870,46 +3186,52 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>99</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>20</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3002</v>
@@ -2921,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -2930,46 +3252,52 @@
         <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
         <v>500</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>99</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3003</v>
@@ -2981,351 +3309,387 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
         <v>1200</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>99</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>100</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3004</v>
       </c>
       <c r="B6">
-        <v>40400</v>
+        <v>40300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
         <v>1500</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>99</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>100</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3005</v>
       </c>
       <c r="B7">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
         <v>1500</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>99</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>100</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>3006</v>
       </c>
       <c r="B8">
-        <v>40600</v>
+        <v>40500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
         <v>1500</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>99</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>100</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3007</v>
       </c>
       <c r="B9">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
         <v>1500</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>99</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>100</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3008</v>
       </c>
       <c r="B10">
-        <v>40800</v>
+        <v>40700</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
         <v>1500</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>99</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>100</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAA8AE-5DD9-4730-926A-B30DB965D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42849962-2BF6-4377-B0E7-E474E68FA3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="405" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42849962-2BF6-4377-B0E7-E474E68FA3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67DED5-1BEE-492F-88A7-BC5B1C0F91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="126">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -99,29 +99,6 @@
   </si>
   <si>
     <t>theme_comment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>至高のお菓子の決定戦
-主にチョコレート・ケーキからランダムでお題が決められる</t>
-    <rPh sb="0" eb="2">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -219,36 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オランジーナ国の準パティシエ達が競うコンペ
-ええ味ができたら、ワイは喜ぶさかいな。</t>
-    <rPh sb="6" eb="7">
-      <t>コク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヨロコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベリーズ賞</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プラトンアカデミーコンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -270,13 +217,6 @@
   </si>
   <si>
     <t>Or_Contest_090</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスク賞</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -316,26 +256,6 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>センシュケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスクのおいしさを決めるコンテスト
-お手軽だが奥深い味わいを目指そう</t>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テガル</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オクブカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>メザ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,32 +313,6 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベリーの扱いに長けたものを決めるコンテスト。
-ベリー系お菓子で優勝目指そう☆</t>
-    <rPh sb="4" eb="5">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ユウショウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>メザ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,10 +389,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エデンコンテスト3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Or_Contest_003</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -572,6 +462,889 @@
   </si>
   <si>
     <t>Or_Contest_670</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光のお菓子大祭典</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ダイサイテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>至高のお菓子の決定戦
+主にチョコレートからランダムでお題が決められる</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>至高のお菓子の決定戦
+主にケーキからランダムでお題が決められる</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>至高のデザインお菓子の決定戦
+特に見た目にこだわったお菓子のトップを決める</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人なお菓子コンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オシャレなクレープコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+得意なお菓子で優勝目指せ！！</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユウショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲオルグ家の晩餐会</t>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>バンサンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルヘンランド♪コンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+メルヘンでかわいいお菓子を募集。夢のあるお菓子を見たいですわ。</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人な雰囲気のお菓子を募集
+アダルトな雰囲気で、マダムに人気なお菓子を作ってください♪</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>英国ティータイムコンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>エイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">お菓子＋紅茶
+ティータイムを彩る香り高い紅茶と、お茶菓子を募集
+</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>チャカシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彫刻お菓子コンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりお菓子コンテスト</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスorゼリー
+暑さを吹き飛ばす！
+つめた～いお菓子を募集シテマース！</t>
+    <rPh sb="9" eb="10">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さっぱりソーダコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソーダ限定
+シュワシュワなソーダは、夏の定番！！
+おいしくてオシャレなソーダでトップを目指せ！</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジューシーカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュース限定
+ビーチで泳ぐ美男美女に、オシャレな飲み物を提供したい！
+オシャレな飲み物を募集！</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ビナンビジョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おみやげおかしコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+おみやげに持って帰れる、お手頃でおいしいお菓子を募集</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テゴロ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク限定
+ラスクのおいしさを決めるコンテスト
+お手軽だが奥深い味わいを目指そう</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オクブカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+オランジーナ国の準パティシエ達が競うコンペ
+腕によりをかけた自慢のお菓子を見せてください！</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光お菓子限定
+光魔法のお菓子コンテスト
+ファンタジーでかわいいお菓子を募集してます</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スカーレットマイスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごのお菓子限定
+お菓子の主役といえば、やはりいちご..！
+いちご好きをうならせるおいしいお菓子を見せてくださいな♪</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュヤク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クワイットスノウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゆきをテーマにしたお菓子
+冬の名物となるような、雪国のお菓子を募集しています。</t>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メイブツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユキクニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラブリーチョコレイト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>愛をテーマにしたチョコレート限定
+心あたたまる、愛にあふれたチョコレートを作ってください。</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宇宙をテーマにしたお菓子
+宇宙・星にちなんだ、ロマンチックなお菓子を募集</t>
+    <rPh sb="0" eb="2">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コスモスカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フローラルカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お花をモチーフにしたお菓子
+お花をメインに使った華やかなお菓子を募集しています。</t>
+    <rPh sb="1" eb="2">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウォーターワールド賞</t>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海をテーマにしたお菓子
+海らしさをお菓子で表現しよう。
+青や白、砂浜の色合い、波の表現.. 工夫をこらすンダ！</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>スナハマ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔法のお菓子コンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔法のお菓子限定
+種類は問わない！
+流行りの魔法を使った、オシャレでかわいいお菓子を見せてね♪</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音楽お菓子コンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音楽をテーマにしたお菓子
+演奏会では、お菓子を楽しんでもらうのも付き物。
+より音楽らしさを表現したお菓子を募集します。</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>エンソウカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石お菓子コンテスト</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石お菓子限定
+トルマリン・アメジスト.. 様々な鉱石たちは、魅了してやみません。
+ここでは、鉱石のような見た目のお菓子を募集します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+キラキラした見た目のお菓子で、よりかわいさを追求しましょう♪</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クレープ限定
+おいしくて甘いクレープを募集
+</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彫刻お菓子限定
+パーティーに飾ると場を彩るような、大きくて華やかなお菓子が見たいですわ。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+真のケーキ王者を決めるコンテスト
+自信のある最高のケーキを見せてください！</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウジャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの王様カップ</t>
+    <rPh sb="4" eb="6">
+      <t>オウサマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート選手権</t>
+    <rPh sb="6" eb="9">
+      <t>センシュケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -961,7 +1734,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1002,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -1014,31 +1787,31 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1059,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1077,7 +1850,7 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -1101,7 +1874,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1125,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1167,7 +1940,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1179,22 +1952,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1206,16 +1979,16 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1233,7 +2006,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1245,22 +2018,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1272,10 +2045,10 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1299,7 +2072,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1311,19 +2084,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1338,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1347,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1365,7 +2138,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1383,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1413,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1431,7 +2204,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1449,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1497,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1515,13 +2288,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1563,7 +2336,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1581,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1629,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1647,7 +2420,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1688,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -1700,31 +2473,31 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1739,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1787,7 +2560,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1805,13 +2578,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1853,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1871,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1919,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1937,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1985,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2003,13 +2776,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2051,7 +2824,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2069,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2117,7 +2890,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2135,13 +2908,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2183,7 +2956,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2201,13 +2974,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2249,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2267,13 +3040,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2315,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -2333,7 +3106,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2374,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -2386,31 +3159,31 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2425,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2473,7 +3246,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -2491,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2539,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2557,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2605,7 +3378,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2623,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2671,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2689,13 +3462,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2737,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2755,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2803,7 +3576,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2821,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2869,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2887,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2935,7 +3708,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2953,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3001,7 +3774,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -3019,7 +3792,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3060,10 +3833,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -3072,31 +3845,31 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3111,13 +3884,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3159,7 +3932,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -3177,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3225,7 +3998,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -3243,13 +4016,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3291,7 +4064,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3309,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3357,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -3375,13 +4148,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3423,7 +4196,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -3441,13 +4214,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3489,7 +4262,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -3507,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3555,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -3573,13 +4346,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3621,7 +4394,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -3639,13 +4412,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3687,7 +4460,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67DED5-1BEE-492F-88A7-BC5B1C0F91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAEDCB-B4B6-4765-A6B2-671E014BFE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2460" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -99,23 +99,6 @@
   </si>
   <si>
     <t>theme_comment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーの初級コンテスト
-新米パティシエ達の登竜門。がんばれ、パティシエのたまごたちよ！！</t>
-    <rPh sb="5" eb="7">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シンマイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タチ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>トウリュウモン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -192,10 +175,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ORANGINA Patissier AWARD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プラトンアカデミーコンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -217,36 +196,6 @@
   </si>
   <si>
     <t>Or_Contest_090</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光のお菓子No.1コンテスト＜ノービス＞</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光のお菓子No.1コンテスト＜上級＞</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキの王様</t>
-    <rPh sb="4" eb="6">
-      <t>オウサマ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -256,49 +205,6 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>センシュケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光魔法のお菓子コンテスト
-かわいいお菓子を見せてね☆</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光魔法のお菓子コンテスト～上級編～
-キラキラファンタジックなお菓子を期待しているぞ！</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジョウキュウヘン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -317,30 +223,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>真のケーキ王者を決めるコンテスト
-ケーキはパティシエのメインとなるお菓子。
-自信のあるものを見せてください！</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウジャ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Contest_Endmonth</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -349,10 +231,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラスクカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Or_Contest_002</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,10 +271,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エデンコンテスト2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Or_Contest_004</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -462,19 +336,6 @@
   </si>
   <si>
     <t>Or_Contest_670</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光のお菓子大祭典</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ダイサイテン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -501,106 +362,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>至高のお菓子の決定戦
-主にケーキからランダムでお題が決められる</t>
-    <rPh sb="0" eb="2">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>至高のデザインお菓子の決定戦
-特に見た目にこだわったお菓子のトップを決める</t>
-    <rPh sb="0" eb="2">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大人なお菓子コンテスト</t>
-    <rPh sb="0" eb="2">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オシャレなクレープコンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-得意なお菓子で優勝目指せ！！</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ユウショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>メザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲオルグ家の晩餐会</t>
-    <rPh sb="4" eb="5">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>バンサンカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メルヘンランド♪コンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自由課題
 メルヘンでかわいいお菓子を募集。夢のあるお菓子を見たいですわ。</t>
     <rPh sb="0" eb="4">
@@ -620,39 +381,6 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キラキラカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大人な雰囲気のお菓子を募集
-アダルトな雰囲気で、マダムに人気なお菓子を作ってください♪</t>
-    <rPh sb="0" eb="2">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フンイキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>フンイキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -694,45 +422,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>彫刻お菓子コンテスト</t>
-    <rPh sb="0" eb="2">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ひんやりお菓子コンテスト</t>
     <rPh sb="5" eb="7">
       <t>カシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイスorゼリー
-暑さを吹き飛ばす！
-つめた～いお菓子を募集シテマース！</t>
-    <rPh sb="9" eb="10">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>さっぱりソーダコンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -754,91 +447,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジューシーカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジュース限定
-ビーチで泳ぐ美男美女に、オシャレな飲み物を提供したい！
-オシャレな飲み物を募集！</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ビナンビジョ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おみやげおかしコンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-おみやげに持って帰れる、お手頃でおいしいお菓子を募集</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テゴロ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスク限定
-ラスクのおいしさを決めるコンテスト
-お手軽だが奥深い味わいを目指そう</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テガル</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>オクブカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>メザ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -875,36 +484,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>光お菓子限定
-光魔法のお菓子コンテスト
-ファンタジーでかわいいお菓子を募集してます</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スカーレットマイスター</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -963,10 +542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラブリーチョコレイト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>愛をテーマにしたチョコレート限定
 心あたたまる、愛にあふれたチョコレートを作ってください。</t>
     <rPh sb="0" eb="1">
@@ -1010,14 +585,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コスモスカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フローラルカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お花をモチーフにしたお菓子
 お花をメインに使った華やかなお菓子を募集しています。</t>
     <rPh sb="1" eb="2">
@@ -1040,65 +607,6 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウォーターワールド賞</t>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>海をテーマにしたお菓子
-海らしさをお菓子で表現しよう。
-青や白、砂浜の色合い、波の表現.. 工夫をこらすンダ！</t>
-    <rPh sb="0" eb="1">
-      <t>ウミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>スナハマ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イロア</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ナミ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>クフウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>魔法のお菓子コンテスト</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1139,16 +647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>音楽お菓子コンテスト</t>
-    <rPh sb="0" eb="2">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>音楽をテーマにしたお菓子
 演奏会では、お菓子を楽しんでもらうのも付き物。
 より音楽らしさを表現したお菓子を募集します。</t>
@@ -1188,125 +686,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>鉱石お菓子コンテスト</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鉱石お菓子限定
-トルマリン・アメジスト.. 様々な鉱石たちは、魅了してやみません。
-ここでは、鉱石のような見た目のお菓子を募集します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミリョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-キラキラした見た目のお菓子で、よりかわいさを追求しましょう♪</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ツイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">クレープ限定
-おいしくて甘いクレープを募集
-</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アマ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>彫刻お菓子限定
-パーティーに飾ると場を彩るような、大きくて華やかなお菓子が見たいですわ。</t>
-    <rPh sb="0" eb="2">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ケーキ限定
 真のケーキ王者を決めるコンテスト
 自信のある最高のケーキを見せてください！</t>
@@ -1334,16 +713,826 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ケーキの王様カップ</t>
+    <t>Or_Contest_100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワールド・パティシエ・チャンピオンシップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+隣国プラムで行われる国際お菓子コンテストです。
+大富豪・貴族が注目するトップレベルのコンテスト</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リンコク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+至高のお菓子の決定戦
+主にケーキからランダムでお題が決められる</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+至高のデザインお菓子の決定戦
+特に見た目にこだわったお菓子のトップを決める</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルヘンランド♪カップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビジョウ・パティスリー・カップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジックパティスリー・アワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海をテーマにしたお菓子
+美しい海を讃えるお菓子を募集します。
+青や白、砂浜の色合い、波の表現.. 地球の海の美しさを表現してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>スナハマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サマーフェスタ・ソーダコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレープ・ドゥ・シャノワール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィナンシェ・バタ～ズカップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かいお菓子限定※焼き菓子は除く
+アフォガード・シブーストなど..
+温かみのあるお菓子で、寒い中にも幸せを見せてください。</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>オウサマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレート選手権</t>
-    <rPh sb="6" eb="9">
-      <t>センシュケン</t>
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シアワ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミルフイユ・ドゥ・パリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミルフイユ限定
+さくさくパリパリのおいしいミルフイユ限定のコンテスト。
+自信のあるミルフイユを見せてください。</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズケーキ・パティスリーアワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズケーキ限定
+おいしい、そして工夫のあるチーズケーキを募集しますわ♪</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネオユニバース・カップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミエール・ドゥ・ソレイユ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アムール・チョコレイト・コンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+お父さんがおみやげに持って帰れるお菓子を募集しますじゃ。
+小さめで子供が喜ぶお菓子がいいのお。</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりお菓子限定
+暑さを吹き飛ばす！
+つめた～いお菓子を募集シテマース！
+アイス・ゼリー・ムースなどなど..。</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アデュルティ・ガトー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人な雰囲気のお菓子を募集
+アダルトな雰囲気で、渋めなお菓子を募集しております..。</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラ・ボンボンズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガレット・デ・ロワ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彫刻お菓子限定
+少し凝った見た目の華やかなお菓子が見たいですわ。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピエスモンテ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンチェルティーノ・イン・ブルー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラム洋菓子技術コンテスト</t>
+    <rPh sb="3" eb="6">
+      <t>ヨウガシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナ・パティスリーアワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベオルブ家のディナー</t>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミエール・エピファニア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミエール・カンデラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディオ・ショコラ・チャンピオンシップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク・ブロカント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク限定
+ラスクのおいしさを決めるコンテスト
+お手軽で、小さなアンティーク市で食べるおやつとして募集します。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+貴族ベオルブ家が、ディナー招待客をもてなすお菓子を、毎年募集しています。
+種類は問いません。華やかなお菓子を希望。</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光お菓子限定
+アフロディーテ様の生誕を祝う神聖なコンテストです。
+美しくもキラキラでファンタジックなお菓子を募集します！</t>
+    <rPh sb="14" eb="15">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイタン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート限定
+とろける、夢見るチョコレートのコンテスト
+はたして、夢を見せてくれるのか・・？</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユメミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー限定
+クッキーの初級コンテスト
+新米パティシエ達の登竜門。がんばれ、パティシエのたまごたちよ！！</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショキュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンマイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>トウリュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィナンシェ限定
+あたたかい出来立てフィナンシェを募集。
+各地のフィナンシェ好きが集まり、審査致します。</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>デキタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+キラキラした子供向けのお菓子を募集しています。
+子供が喜びそうなお菓子でナンバーワン目指してくださいね！</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コドモム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石お菓子限定
+トルマリン・アメジスト.. 様々な鉱石たちは、私たちを魅了してやみません。
+キラもの好きの大富豪がうなるお菓子を募集します♪</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレープ限定
+黒猫達も好むおいしくて甘いクレープを募集
+権威ある上流黒猫たちも注目しています♪</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クロネコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>クロネコ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェド・フルラージュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボンボヤージュ・カップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュース限定
+ビーチで泳ぐ美女に、オシャレな飲み物を捧げたい！
+一番華やかな飲み物を募集してマス！</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遥かなる蒼賞</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光お菓子限定
+国の豊穣を祝う光のお菓子コンテストです。
+光をイメージした、ファンタジックでかわいいお菓子を募集してます。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1731,9 +1920,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>3000</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>99</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>99</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1200</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1500</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>1500</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10600</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>1500</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10700</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1500</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1775,10 +2716,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -1787,52 +2728,52 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
-        <v>0</v>
+        <f>ROW()-2+1000</f>
+        <v>1000</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1850,7 +2791,7 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -1874,7 +2815,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1882,23 +2823,23 @@
     </row>
     <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1940,7 +2881,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1949,22 +2890,22 @@
     <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B4">
-        <v>10300</v>
+        <v>20100</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1979,7 +2920,7 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1988,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2006,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2015,25 +2956,25 @@
     <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B5">
-        <v>10100</v>
+        <v>20200</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2045,10 +2986,10 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2072,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2081,22 +3022,22 @@
     <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B6">
-        <v>10200</v>
+        <v>20300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2111,7 +3052,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2120,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2138,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2147,22 +3088,22 @@
     <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B7">
-        <v>10400</v>
+        <v>20400</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2186,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2204,7 +3145,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2213,22 +3154,22 @@
     <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B8">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2246,7 +3187,7 @@
         <v>1500</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2270,7 +3211,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2279,22 +3220,22 @@
     <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>10600</v>
+        <v>20600</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2312,13 +3253,13 @@
         <v>1500</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2336,7 +3277,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2345,28 +3286,28 @@
     <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B10">
-        <v>10700</v>
+        <v>20700</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2378,13 +3319,13 @@
         <v>1500</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2402,7 +3343,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -2415,12 +3356,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2461,10 +3402,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -2473,40 +3414,40 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f>ROW()-2+1000</f>
-        <v>1000</v>
+        <f>ROW()-2+2000</f>
+        <v>2000</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2515,10 +3456,10 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2560,7 +3501,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -2568,23 +3509,23 @@
     </row>
     <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
-        <v>1001</v>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
+        <v>2001</v>
       </c>
       <c r="B3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2599,7 +3540,7 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2608,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2626,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2635,22 +3576,22 @@
     <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="B4">
-        <v>20100</v>
+        <v>30100</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2692,7 +3633,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2701,22 +3642,22 @@
     <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="B5">
-        <v>20200</v>
+        <v>30200</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2758,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2767,22 +3708,22 @@
     <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>1004</v>
+        <v>2004</v>
       </c>
       <c r="B6">
-        <v>20300</v>
+        <v>30300</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2806,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2824,7 +3765,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2833,22 +3774,22 @@
     <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>1005</v>
+        <v>2005</v>
       </c>
       <c r="B7">
-        <v>20400</v>
+        <v>30400</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2890,7 +3831,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2899,22 +3840,22 @@
     <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>1006</v>
+        <v>2006</v>
       </c>
       <c r="B8">
-        <v>20500</v>
+        <v>30500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2956,7 +3897,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2965,22 +3906,22 @@
     <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>2007</v>
       </c>
       <c r="B9">
-        <v>20600</v>
+        <v>30600</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3022,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -3031,22 +3972,22 @@
     <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>2008</v>
       </c>
       <c r="B10">
-        <v>20700</v>
+        <v>30700</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3088,7 +4029,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -3101,12 +4042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3147,10 +4088,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -3159,717 +4100,31 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>ROW()-2+2000</f>
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>31</v>
-      </c>
-      <c r="K2">
-        <v>3000</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>99</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>1000</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
-        <v>2001</v>
-      </c>
-      <c r="B3">
-        <v>30000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>99</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>20</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>2002</v>
-      </c>
-      <c r="B4">
-        <v>30100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>99</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>2003</v>
-      </c>
-      <c r="B5">
-        <v>30200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>1200</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>99</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>100</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>2004</v>
-      </c>
-      <c r="B6">
-        <v>30300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>1500</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>99</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>100</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-      <c r="B7">
-        <v>30400</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>1500</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>99</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>100</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2006</v>
-      </c>
-      <c r="B8">
-        <v>30500</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>1500</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>99</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>100</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="B9">
-        <v>30600</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>1500</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>99</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>2008</v>
-      </c>
-      <c r="B10">
-        <v>30700</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>1500</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>99</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>100</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
-  <dimension ref="A1:U10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3884,13 +4139,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3932,7 +4187,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -3950,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3998,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -4016,13 +4271,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4064,7 +4319,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -4082,13 +4337,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4130,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4148,13 +4403,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4196,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -4214,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4262,7 +4517,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -4280,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4328,7 +4583,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -4346,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4394,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -4412,13 +4667,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4460,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U10">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAEDCB-B4B6-4765-A6B2-671E014BFE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10D82A-81DB-4C90-8CB3-462BCF85BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1725" yWindow="660" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -362,62 +362,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自由課題
-メルヘンでかわいいお菓子を募集。夢のあるお菓子を見たいですわ。</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>英国ティータイムコンテスト</t>
     <rPh sb="0" eb="2">
       <t>エイコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">お菓子＋紅茶
-ティータイムを彩る香り高い紅茶と、お茶菓子を募集
-</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>チャカシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -519,29 +466,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゆきをテーマにしたお菓子
-冬の名物となるような、雪国のお菓子を募集しています。</t>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フユ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メイブツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ユキクニ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>愛をテーマにしたチョコレート限定
 心あたたまる、愛にあふれたチョコレートを作ってください。</t>
     <rPh sb="0" eb="1">
@@ -580,107 +504,6 @@
       <t>カシ</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お花をモチーフにしたお菓子
-お花をメインに使った華やかなお菓子を募集しています。</t>
-    <rPh sb="1" eb="2">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>魔法のお菓子限定
-種類は問わない！
-流行りの魔法を使った、オシャレでかわいいお菓子を見せてね♪</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>音楽をテーマにしたお菓子
-演奏会では、お菓子を楽しんでもらうのも付き物。
-より音楽らしさを表現したお菓子を募集します。</t>
-    <rPh sb="0" eb="2">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>エンソウカイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
       <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -722,36 +545,6 @@
   </si>
   <si>
     <t>ケーキ限定
-隣国プラムで行われる国際お菓子コンテストです。
-大富豪・貴族が注目するトップレベルのコンテスト</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リンコク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コクサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キゾク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チュウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ限定
 至高のお菓子の決定戦
 主にケーキからランダムでお題が決められる</t>
     <rPh sb="3" eb="5">
@@ -823,114 +616,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>海をテーマにしたお菓子
-美しい海を讃えるお菓子を募集します。
-青や白、砂浜の色合い、波の表現.. 地球の海の美しさを表現してください。</t>
-    <rPh sb="0" eb="1">
-      <t>ウミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウツク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウミ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>スナハマ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イロア</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ナミ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>チキュウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ウミ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ウツク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サマーフェスタ・ソーダコンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クレープ・ドゥ・シャノワール</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>フィナンシェ・バタ～ズカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>温かいお菓子限定※焼き菓子は除く
-アフォガード・シブーストなど..
-温かみのあるお菓子で、寒い中にも幸せを見せてください。</t>
-    <rPh sb="0" eb="1">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガシ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>サム</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>シアワ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ミ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -983,42 +673,6 @@
   </si>
   <si>
     <t>アムール・チョコレイト・コンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-お父さんがおみやげに持って帰れるお菓子を募集しますじゃ。
-小さめで子供が喜ぶお菓子がいいのお。</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カシ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1091,41 +745,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>彫刻お菓子限定
-少し凝った見た目の華やかなお菓子が見たいですわ。</t>
-    <rPh sb="0" eb="2">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ピエスモンテ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1333,75 +952,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自由課題
-キラキラした子供向けのお菓子を募集しています。
-子供が喜びそうなお菓子でナンバーワン目指してくださいね！</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>コドモム</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>メザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鉱石お菓子限定
-トルマリン・アメジスト.. 様々な鉱石たちは、私たちを魅了してやみません。
-キラもの好きの大富豪がうなるお菓子を募集します♪</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ミリョウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クレープ限定
 黒猫達も好むおいしくて甘いクレープを募集
 権威ある上流黒猫たちも注目しています♪</t>
@@ -1446,45 +996,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジュース限定
-ビーチで泳ぐ美女に、オシャレな飲み物を捧げたい！
-一番華やかな飲み物を募集してマス！</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ビジョ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ササ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>遥かなる蒼賞</t>
     <rPh sb="0" eb="1">
       <t>ハル</t>
@@ -1533,6 +1044,492 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フライング・ソーダコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュークリーム・ドーナツ限定
+パパがおみやげに持って帰れるお菓子を募集しますじゃ。
+小さめで子供が喜ぶお菓子がいいのお。</t>
+    <rPh sb="12" eb="14">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海をテーマにしたチョコレート
+美しい海を讃えるチョコレートを募集します。
+青や白、砂浜の色合い、波の表現.. 地球の海の美しさを表現してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>スナハマ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔法のお菓子限定
+魔法で仕上げた、一風変わったオシャレなお菓子を募集♪
+見慣れない不思議なお菓子だと高得点です！</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>イップウカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>コウトクテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+隣国プラムで行われる国際お菓子コンテスト。
+大富豪・貴族が注目するトップレベルのコンテストです。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リンコク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュース限定
+ビーチで泳ぐ美女に、オシャレな飲み物を提供したいデース！
+ゴージャス飲み物を募集してマス！</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題※実装まだ
+メルヘンでかわいいお菓子を募集。夢のあるお菓子を見たいですわ。</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題※実装まだ
+キラキラした子供向けのお菓子を募集しています。
+子供が喜びそうなお菓子でナンバーワン目指してくださいね！</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コドモム</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">お菓子＋紅茶※実装まだ
+ティータイムを彩る香り高い紅茶と、お茶菓子を募集
+</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>チャカシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彫刻お菓子限定※実装まだ
+少し凝った見た目の華やかなお菓子が見たいですわ。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音楽をテーマにしたお菓子※実装まだ
+演奏会では、お菓子を楽しんでもらうのも付き物。
+より音楽らしさを表現したお菓子を募集します。</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>エンソウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石お菓子限定※実装まだ
+トルマリン・アメジスト.. 様々な鉱石たちは、私たちを魅了してやみません。
+キラもの好きの大富豪がうなるお菓子を募集します♪</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お花をモチーフにしたお菓子※実装まだ
+お花をメインに使った華やかなお菓子を募集しています。</t>
+    <rPh sb="1" eb="2">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゆきをテーマにしたお菓子※実装まだ
+冬の名物となるような、雪国のお菓子を募集しています。</t>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイブツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユキクニ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かいお菓子限定※焼き菓子は除く
+アフォガード・シブーストなど..
+温かみのあるお菓子で、寒さを吹き飛ばしたい！</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1922,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2087,7 +2084,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2150,10 +2147,10 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2213,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2282,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -2348,10 +2345,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2366,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2414,10 +2411,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2432,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2480,10 +2477,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2498,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -2546,10 +2543,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2564,7 +2561,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2612,10 +2609,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2675,7 +2672,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2773,7 +2770,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2836,10 +2833,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2848,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2902,25 +2899,25 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>31</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2968,25 +2965,25 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>31</v>
       </c>
       <c r="K5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3034,13 +3031,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3052,7 +3049,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3100,25 +3097,25 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3166,25 +3163,25 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3232,13 +3229,13 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3250,7 +3247,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3298,25 +3295,25 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3361,7 +3358,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3456,10 +3453,10 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3522,10 +3519,10 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3588,10 +3585,10 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3654,10 +3651,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3720,7 +3717,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>126</v>
@@ -3786,10 +3783,10 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3852,10 +3849,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3918,10 +3915,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3984,10 +3981,10 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4046,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4208,10 +4205,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4274,10 +4271,10 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4301,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -4340,10 +4337,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4358,7 +4355,7 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4406,10 +4403,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4424,7 +4421,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4433,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4472,10 +4469,10 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4490,7 +4487,7 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4499,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4538,10 +4535,10 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4556,7 +4553,7 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4604,10 +4601,10 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4622,7 +4619,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4688,7 +4685,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4697,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10D82A-81DB-4C90-8CB3-462BCF85BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40840933-0839-4B5A-8EA6-E1009ABEEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="660" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="136">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1531,6 +1531,14 @@
     <rPh sb="50" eb="51">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ContestVictory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ContestFightsCount</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1917,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1931,11 +1939,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="12" max="21" width="6.75" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1994,13 +2002,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
@@ -2059,14 +2073,20 @@
       <c r="S2">
         <v>1000</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2125,14 +2145,20 @@
       <c r="S3">
         <v>20</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2191,14 +2217,20 @@
       <c r="S4">
         <v>100</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2257,14 +2289,20 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2323,14 +2361,20 @@
       <c r="S6">
         <v>100</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2389,14 +2433,20 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2455,14 +2505,20 @@
       <c r="S8">
         <v>100</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2521,14 +2577,20 @@
       <c r="S9">
         <v>100</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2587,14 +2649,20 @@
       <c r="S10">
         <v>100</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2653,10 +2721,16 @@
       <c r="S11">
         <v>100</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>1</v>
       </c>
     </row>
@@ -2669,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2683,11 +2757,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="12" max="21" width="6.75" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2746,13 +2820,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+1000</f>
         <v>1000</v>
@@ -2811,14 +2891,20 @@
       <c r="S2">
         <v>1000</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
         <v>1001</v>
@@ -2877,14 +2963,20 @@
       <c r="S3">
         <v>20</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -2943,14 +3035,20 @@
       <c r="S4">
         <v>100</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -3009,14 +3107,20 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -3075,14 +3179,20 @@
       <c r="S6">
         <v>100</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -3141,14 +3251,20 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -3207,14 +3323,20 @@
       <c r="S8">
         <v>100</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -3273,14 +3395,20 @@
       <c r="S9">
         <v>100</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -3339,10 +3467,16 @@
       <c r="S10">
         <v>100</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
@@ -3355,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3369,11 +3503,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="12" max="21" width="6.75" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3432,13 +3566,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+2000</f>
         <v>2000</v>
@@ -3497,14 +3637,20 @@
       <c r="S2">
         <v>1000</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
         <v>2001</v>
@@ -3563,14 +3709,20 @@
       <c r="S3">
         <v>20</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -3629,14 +3781,20 @@
       <c r="S4">
         <v>100</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -3695,14 +3853,20 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -3761,14 +3925,20 @@
       <c r="S6">
         <v>100</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -3827,14 +3997,20 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -3893,14 +4069,20 @@
       <c r="S8">
         <v>100</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -3959,14 +4141,20 @@
       <c r="S9">
         <v>100</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -4025,10 +4213,16 @@
       <c r="S10">
         <v>100</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
@@ -4041,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4055,11 +4249,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="12" max="21" width="6.75" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4118,13 +4312,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+3000</f>
         <v>3000</v>
@@ -4183,14 +4383,20 @@
       <c r="S2">
         <v>1000</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+3000</f>
         <v>3001</v>
@@ -4249,14 +4455,20 @@
       <c r="S3">
         <v>20</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3002</v>
@@ -4315,14 +4527,20 @@
       <c r="S4">
         <v>100</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3003</v>
@@ -4381,14 +4599,20 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3004</v>
@@ -4447,14 +4671,20 @@
       <c r="S6">
         <v>100</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3005</v>
@@ -4513,14 +4743,20 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>3006</v>
@@ -4579,14 +4815,20 @@
       <c r="S8">
         <v>100</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3007</v>
@@ -4645,14 +4887,20 @@
       <c r="S9">
         <v>100</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3008</v>
@@ -4711,10 +4959,16 @@
       <c r="S10">
         <v>100</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40840933-0839-4B5A-8EA6-E1009ABEEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FD14E7-C2EB-402A-BF55-29C174DF93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1560" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2107,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2179,16 +2179,16 @@
         <v>108</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>113</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>31</v>
@@ -2323,13 +2323,13 @@
         <v>71</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>31</v>
@@ -2395,16 +2395,16 @@
         <v>109</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -2467,16 +2467,16 @@
         <v>118</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>500</v>
@@ -2689,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>1200</v>
@@ -2745,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2925,16 +2925,16 @@
         <v>94</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2997,13 +2997,13 @@
         <v>69</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <v>31</v>
@@ -3069,13 +3069,13 @@
         <v>124</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>31</v>
@@ -3141,7 +3141,7 @@
         <v>120</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3213,16 +3213,16 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>500</v>
@@ -3285,13 +3285,13 @@
         <v>121</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>31</v>
@@ -3357,7 +3357,7 @@
         <v>122</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3429,16 +3429,16 @@
         <v>123</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>1000</v>
@@ -3491,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3671,7 +3671,7 @@
         <v>114</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4237,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4417,7 +4417,7 @@
         <v>132</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FD14E7-C2EB-402A-BF55-29C174DF93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293854C-7382-4973-BE77-45BBFAF3E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2250" yWindow="495" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -904,27 +904,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキー限定
-クッキーの初級コンテスト
-新米パティシエ達の登竜門。がんばれ、パティシエのたまごたちよ！！</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シンマイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タチ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>トウリュウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フィナンシェ限定
 あたたかい出来立てフィナンシェを募集。
 各地のフィナンシェ好きが集まり、審査致します。</t>
@@ -1539,6 +1518,27 @@
   </si>
   <si>
     <t>ContestFightsCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー限定
+クッキーの初級コンテスト
+新米パティシエ達の登竜門。ゆけぃ！パティシエのたまごたちよ！！</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショキュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンマイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>トウリュウモン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2002,10 +2002,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -2104,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2820,10 +2820,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>69</v>
@@ -3063,10 +3063,10 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3279,10 +3279,10 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3566,10 +3566,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -3668,7 +3668,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3812,7 +3812,7 @@
         <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4172,7 +4172,7 @@
         <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4237,7 +4237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4312,10 +4312,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -4414,7 +4414,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4627,10 +4627,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293854C-7382-4973-BE77-45BBFAF3E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D974AB-855C-456D-A6A7-EB3409347B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="495" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4365" yWindow="1260" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1538,6 +1538,19 @@
     </rPh>
     <rPh sb="29" eb="32">
       <t>トウリュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジ色は、調整済のやつ</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1575,7 +1588,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,12 +1622,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1927,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2086,147 +2111,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>10000</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
         <v>12</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>31</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <v>99</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>20</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>10300</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>31</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>99</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4">
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2287,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2359,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2431,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2503,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2575,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2647,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2719,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2746,7 +2771,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J10"/>
+      <selection activeCell="S3" sqref="S3:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2961,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3033,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3105,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3177,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3249,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3321,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3393,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3465,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3492,7 +3517,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J10"/>
+      <selection activeCell="S3" sqref="S3:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3707,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3779,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3851,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3923,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3995,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4067,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4139,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4211,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4238,7 +4263,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4453,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4525,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4597,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4669,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4741,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4813,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4885,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4957,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D974AB-855C-456D-A6A7-EB3409347B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A628D6-33CC-44E4-BEB0-3373801AB8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1260" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3495" yWindow="1545" windowWidth="23355" windowHeight="13695" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2060,10 +2060,10 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -2072,7 +2072,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>135</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
         <v>12</v>
@@ -2204,10 +2204,10 @@
         <v>108</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
         <v>12</v>
@@ -2255,75 +2255,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>10800</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>31</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>300</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
         <v>99</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>10</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2348,10 +2348,10 @@
         <v>71</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -2420,10 +2420,10 @@
         <v>109</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -2432,7 +2432,7 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>117</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -2504,7 +2504,7 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2564,10 +2564,10 @@
         <v>110</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -2576,7 +2576,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -2636,10 +2636,10 @@
         <v>77</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2648,7 +2648,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>850</v>
+        <v>2000</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2708,10 +2708,10 @@
         <v>111</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -2720,7 +2720,7 @@
         <v>31</v>
       </c>
       <c r="K11">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="L11">
         <v>2</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A628D6-33CC-44E4-BEB0-3373801AB8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF360F57-4CB7-4935-B973-10BF64532A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1545" windowWidth="23355" windowHeight="13695" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -1246,140 +1246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自由課題※実装まだ
-キラキラした子供向けのお菓子を募集しています。
-子供が喜びそうなお菓子でナンバーワン目指してくださいね！</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>コドモム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>メザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">お菓子＋紅茶※実装まだ
-ティータイムを彩る香り高い紅茶と、お茶菓子を募集
-</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ダカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>チャカシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>彫刻お菓子限定※実装まだ
-少し凝った見た目の華やかなお菓子が見たいですわ。</t>
-    <rPh sb="0" eb="2">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>音楽をテーマにしたお菓子※実装まだ
-演奏会では、お菓子を楽しんでもらうのも付き物。
-より音楽らしさを表現したお菓子を募集します。</t>
-    <rPh sb="0" eb="2">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>エンソウカイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>鉱石お菓子限定※実装まだ
 トルマリン・アメジスト.. 様々な鉱石たちは、私たちを魅了してやみません。
 キラもの好きの大富豪がうなるお菓子を募集します♪</t>
@@ -1551,6 +1417,148 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題※実装まだ
+お子様向けのお菓子を募集しています。
+かわいいや不思議なお菓子など.. ぜひ応募お待ちしてます！</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コサマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">紅茶※実装まだ
+ティータイムを彩る香り高い紅茶を募集
+ぜひご応募くださいませ。
+</t>
+    <rPh sb="0" eb="2">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>オウボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彫刻お菓子限定※実装まだ
+ローゼンバッハ家のパーティーで飾るお菓子を募集しています。
+パーティーの目玉になる、派手なお菓子が希望ですわ♪</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>メダマ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音楽をテーマにしたお菓子※実装まだ
+秋の大演奏会で、音楽とお菓子を合わせたイベントを開催します。
+ジャズと調和するおいしいお菓子を募集しております。</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>エンソウカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1952,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2027,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -2129,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2249,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W4" s="3">
         <v>0</v>
@@ -2845,10 +2853,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -3516,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3591,10 +3599,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -3909,7 +3917,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3981,7 +3989,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4053,7 +4061,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4125,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4197,7 +4205,7 @@
         <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4337,10 +4345,10 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -4439,7 +4447,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4655,7 +4663,7 @@
         <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4727,7 +4735,7 @@
         <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF360F57-4CB7-4935-B973-10BF64532A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D5D4B-DD5B-47C9-B1A4-C8936669E6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2925" yWindow="795" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2779,7 +2779,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S10"/>
+      <selection activeCell="G2" sqref="G2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2886,10 +2886,10 @@
         <v>80</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -2898,7 +2898,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2958,10 +2958,10 @@
         <v>94</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -2970,7 +2970,7 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3030,10 +3030,10 @@
         <v>69</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -3042,7 +3042,7 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3102,10 +3102,10 @@
         <v>123</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -3114,7 +3114,7 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3174,10 +3174,10 @@
         <v>119</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -3246,10 +3246,10 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -3258,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3318,10 +3318,10 @@
         <v>120</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -3330,7 +3330,7 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3390,10 +3390,10 @@
         <v>121</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -3402,7 +3402,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3462,10 +3462,10 @@
         <v>122</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -3474,7 +3474,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3524,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3632,10 +3632,10 @@
         <v>81</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -3644,7 +3644,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>113</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -3716,7 +3716,7 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3776,10 +3776,10 @@
         <v>96</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -3848,10 +3848,10 @@
         <v>124</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -3920,10 +3920,10 @@
         <v>133</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -3932,7 +3932,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3992,10 +3992,10 @@
         <v>134</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4064,10 +4064,10 @@
         <v>135</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -4076,7 +4076,7 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4136,10 +4136,10 @@
         <v>136</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4208,10 +4208,10 @@
         <v>125</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -4220,7 +4220,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4271,7 +4271,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4378,10 +4378,10 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -4390,7 +4390,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -4450,10 +4450,10 @@
         <v>127</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -4522,10 +4522,10 @@
         <v>75</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -4534,7 +4534,7 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4594,10 +4594,10 @@
         <v>76</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -4606,7 +4606,7 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4666,10 +4666,10 @@
         <v>126</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -4678,7 +4678,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4738,10 +4738,10 @@
         <v>128</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -4750,7 +4750,7 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4810,10 +4810,10 @@
         <v>88</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -4882,10 +4882,10 @@
         <v>90</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -4894,7 +4894,7 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4954,10 +4954,10 @@
         <v>36</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -4966,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L10">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D5D4B-DD5B-47C9-B1A4-C8936669E6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768019F-EA64-472B-B03C-D0AC64DC763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="795" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2310" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="150">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1560,6 +1560,58 @@
     <rPh sb="65" eb="67">
       <t>ボシュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ContestBGName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ContestBGChubouName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ContestBGMSelect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sound38</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sound46</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t20</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1958,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1972,11 +2024,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="21" width="6.75" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="12" max="24" width="6.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2041,13 +2093,22 @@
         <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
@@ -2112,14 +2173,23 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2184,14 +2254,23 @@
       <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="3">
+      <c r="Z3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2256,14 +2335,23 @@
       <c r="U4" s="3">
         <v>0</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="W4" s="3">
+      <c r="Z4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2328,14 +2416,23 @@
       <c r="U5" s="3">
         <v>0</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="3">
+      <c r="Z5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2400,14 +2497,23 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2472,14 +2578,23 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2544,14 +2659,23 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" t="s">
+        <v>141</v>
+      </c>
+      <c r="X8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2616,14 +2740,23 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s">
+        <v>137</v>
+      </c>
+      <c r="W9" t="s">
+        <v>141</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2688,14 +2821,23 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s">
+        <v>137</v>
+      </c>
+      <c r="W10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2760,10 +2902,19 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" t="s">
+        <v>141</v>
+      </c>
+      <c r="X11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>1</v>
       </c>
     </row>
@@ -2776,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2790,11 +2941,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="21" width="6.75" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="12" max="24" width="6.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2859,13 +3010,22 @@
         <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+1000</f>
         <v>1000</v>
@@ -2930,14 +3090,23 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+1000</f>
         <v>1001</v>
@@ -3002,14 +3171,23 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -3074,14 +3252,23 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -3146,14 +3333,23 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -3218,14 +3414,23 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -3290,14 +3495,23 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" t="s">
+        <v>147</v>
+      </c>
+      <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -3362,14 +3576,23 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -3434,14 +3657,23 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" t="s">
+        <v>147</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -3506,10 +3738,19 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>1</v>
       </c>
     </row>
@@ -3522,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H10"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3536,11 +3777,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="21" width="6.75" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="12" max="24" width="6.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3605,13 +3846,22 @@
         <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+2000</f>
         <v>2000</v>
@@ -3676,14 +3926,23 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
         <v>2001</v>
@@ -3748,14 +4007,23 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -3820,14 +4088,23 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -3892,14 +4169,23 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" t="s">
+        <v>149</v>
+      </c>
+      <c r="X5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -3964,14 +4250,23 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" t="s">
+        <v>149</v>
+      </c>
+      <c r="X6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -4036,14 +4331,23 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" t="s">
+        <v>149</v>
+      </c>
+      <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -4108,14 +4412,23 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -4180,14 +4493,23 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s">
+        <v>145</v>
+      </c>
+      <c r="W9" t="s">
+        <v>149</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -4252,10 +4574,19 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s">
+        <v>145</v>
+      </c>
+      <c r="W10" t="s">
+        <v>149</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>1</v>
       </c>
     </row>
@@ -4268,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4282,11 +4613,11 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="21" width="6.75" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="12" max="24" width="6.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4351,13 +4682,22 @@
         <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+3000</f>
         <v>3000</v>
@@ -4422,14 +4762,23 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+3000</f>
         <v>3001</v>
@@ -4494,14 +4843,23 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3002</v>
@@ -4566,14 +4924,23 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3003</v>
@@ -4638,14 +5005,23 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3004</v>
@@ -4710,14 +5086,23 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3005</v>
@@ -4782,14 +5167,23 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>3006</v>
@@ -4854,14 +5248,23 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" t="s">
+        <v>148</v>
+      </c>
+      <c r="X8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3007</v>
@@ -4926,14 +5329,23 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3008</v>
@@ -4998,10 +5410,19 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W10" t="s">
+        <v>148</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768019F-EA64-472B-B03C-D0AC64DC763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2311F-9AD4-4643-B4F5-0074051EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2460" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -668,10 +668,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ルミエール・ドゥ・ソレイユ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アムール・チョコレイト・コンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -859,33 +855,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>光お菓子限定
-アフロディーテ様の生誕を祝う神聖なコンテストです。
-美しくもキラキラでファンタジックなお菓子を募集します！</t>
-    <rPh sb="14" eb="15">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイタン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウツク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チョコレート限定
 とろける、夢見るチョコレートのコンテスト
 はたして、夢を見せてくれるのか・・？</t>
@@ -984,45 +953,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光お菓子限定
-国の豊穣を祝う光のお菓子コンテストです。
-光をイメージした、ファンタジックでかわいいお菓子を募集してます。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>クニ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1612,6 +1542,79 @@
   </si>
   <si>
     <t>t20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イル・フェ・ドゥ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光お菓子限定
+国の豊穣を祝うお菓子のお祭りです。
+光をイメージした、ファンタジックなお菓子を募集してます。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光お菓子限定
+アフロディーテ様の生誕を祝うお祭りです。
+神々しい光をイメージしたお菓子を募集します！</t>
+    <rPh sb="14" eb="15">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイタン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ボシュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2012,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2087,19 +2090,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -2174,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -2207,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2255,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>21</v>
@@ -2285,10 +2288,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2336,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -2369,7 +2372,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2390,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -2417,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>21</v>
@@ -2447,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>71</v>
@@ -2465,13 +2468,13 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -2498,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>24</v>
@@ -2528,10 +2531,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2552,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -2579,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -2609,10 +2612,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2633,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -2660,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -2690,10 +2693,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2714,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -2741,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -2771,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>77</v>
@@ -2795,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -2822,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -2852,10 +2855,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -2903,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>21</v>
@@ -2930,7 +2933,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W10"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3004,19 +3007,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3064,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3091,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" t="s">
         <v>144</v>
       </c>
-      <c r="W2" t="s">
-        <v>147</v>
-      </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3124,7 +3127,7 @@
         <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3172,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" t="s">
         <v>144</v>
       </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -3202,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>69</v>
@@ -3226,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3253,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" t="s">
         <v>144</v>
       </c>
-      <c r="W4" t="s">
-        <v>147</v>
-      </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -3283,10 +3286,10 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3307,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -3334,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
+        <v>141</v>
+      </c>
+      <c r="W5" t="s">
         <v>144</v>
       </c>
-      <c r="W5" t="s">
-        <v>147</v>
-      </c>
       <c r="X5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -3367,7 +3370,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3388,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3415,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
+        <v>141</v>
+      </c>
+      <c r="W6" t="s">
         <v>144</v>
       </c>
-      <c r="W6" t="s">
-        <v>147</v>
-      </c>
       <c r="X6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -3496,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W7" t="s">
         <v>144</v>
       </c>
-      <c r="W7" t="s">
-        <v>147</v>
-      </c>
       <c r="X7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -3526,10 +3529,10 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3550,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -3577,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" t="s">
         <v>144</v>
       </c>
-      <c r="W8" t="s">
-        <v>147</v>
-      </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -3610,7 +3613,7 @@
         <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3631,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -3658,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
+        <v>141</v>
+      </c>
+      <c r="W9" t="s">
         <v>144</v>
       </c>
-      <c r="W9" t="s">
-        <v>147</v>
-      </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -3688,10 +3691,10 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3712,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -3739,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" t="s">
         <v>144</v>
       </c>
-      <c r="W10" t="s">
-        <v>147</v>
-      </c>
       <c r="X10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -3765,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3840,19 +3843,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3900,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3918,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3927,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3960,7 +3963,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4008,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4038,10 +4041,10 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4062,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -4089,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4122,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4143,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4170,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -4200,10 +4203,10 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4251,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -4284,7 +4287,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4305,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -4332,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -4362,10 +4365,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4386,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -4413,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -4443,10 +4446,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4467,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -4494,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -4527,7 +4530,7 @@
         <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4548,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -4575,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -4602,7 +4605,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4676,19 +4679,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -4736,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -4754,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4763,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -4796,7 +4799,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4844,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4874,7 +4877,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>75</v>
@@ -4898,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -4925,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4979,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -5006,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -5036,10 +5039,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5060,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -5087,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -5117,10 +5120,10 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5141,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -5168,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -5222,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -5249,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -5303,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -5330,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -5384,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -5411,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2311F-9AD4-4643-B4F5-0074051EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA73981-6E47-4A66-AEAB-DC9A0FB28DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2933,7 +2933,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3769,7 +3769,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="S2" sqref="S2:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4604,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA73981-6E47-4A66-AEAB-DC9A0FB28DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161D11E-0D79-4D08-9145-22EFAB395A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2595" yWindow="900" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>12</v>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="3">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>300</v>
       </c>
       <c r="L5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>1500</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -2552,10 +2552,10 @@
         <v>1000</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -2633,10 +2633,10 @@
         <v>1000</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -2714,10 +2714,10 @@
         <v>1500</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>2000</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -2876,10 +2876,10 @@
         <v>3000</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2932,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>200</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>400</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>31</v>
       </c>
       <c r="K9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3769,7 +3769,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -4604,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161D11E-0D79-4D08-9145-22EFAB395A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C56B1-7F44-4A13-A515-0878979663E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="900" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1620" yWindow="1245" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2932,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3769,7 +3769,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4604,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T10">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C56B1-7F44-4A13-A515-0878979663E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235C60E-1925-4AB2-871E-5C9D62252D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1245" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="151">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -541,66 +541,6 @@
   </si>
   <si>
     <t>ワールド・パティシエ・チャンピオンシップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ限定
-至高のお菓子の決定戦
-主にケーキからランダムでお題が決められる</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-至高のデザインお菓子の決定戦
-特に見た目にこだわったお菓子のトップを決める</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1614,6 +1554,71 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+至高のお菓子の決定戦
+賞品には、エデンのレシピを進呈します。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+至高のデザインお菓子の決定戦
+賞品には、エデンのレシピを進呈します。</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>至高のチョコレートの決定戦
+賞品には、エデンのレシピを進呈します。</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2016,7 +2021,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2090,19 +2095,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -2177,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -2210,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2258,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>21</v>
@@ -2288,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2339,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="Y4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -2369,10 +2374,10 @@
         <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2420,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>21</v>
@@ -2450,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>71</v>
@@ -2501,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W6" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" t="s">
         <v>138</v>
-      </c>
-      <c r="X6" t="s">
-        <v>140</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>24</v>
@@ -2531,10 +2536,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2582,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" t="s">
         <v>138</v>
-      </c>
-      <c r="X7" t="s">
-        <v>140</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -2612,10 +2617,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2663,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W8" t="s">
+        <v>136</v>
+      </c>
+      <c r="X8" t="s">
         <v>138</v>
-      </c>
-      <c r="X8" t="s">
-        <v>140</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -2693,10 +2698,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2714,7 +2719,7 @@
         <v>1500</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -2744,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W9" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" t="s">
         <v>138</v>
-      </c>
-      <c r="X9" t="s">
-        <v>140</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -2774,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>77</v>
@@ -2795,7 +2800,7 @@
         <v>2000</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>15</v>
@@ -2825,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" t="s">
         <v>138</v>
-      </c>
-      <c r="X10" t="s">
-        <v>140</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -2855,10 +2860,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2876,7 +2881,7 @@
         <v>3000</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>15</v>
@@ -2906,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s">
         <v>138</v>
-      </c>
-      <c r="X11" t="s">
-        <v>140</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>21</v>
@@ -2933,7 +2938,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3007,19 +3012,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3046,13 +3051,13 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -3064,10 +3069,10 @@
         <v>5000</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3094,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3127,7 +3132,7 @@
         <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3175,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -3205,7 +3210,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>69</v>
@@ -3256,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -3286,10 +3291,10 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3337,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -3370,7 +3375,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3418,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -3499,13 +3504,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -3529,10 +3534,10 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3580,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -3610,16 +3615,16 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -3661,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -3691,16 +3696,16 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -3715,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -3742,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -3769,7 +3774,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3843,19 +3848,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3882,13 +3887,13 @@
         <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -3900,10 +3905,10 @@
         <v>5000</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="M2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3930,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3960,10 +3965,10 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3981,7 +3986,7 @@
         <v>500</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4011,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4041,10 +4046,10 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4062,10 +4067,10 @@
         <v>500</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -4092,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4122,10 +4127,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4146,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4173,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -4203,10 +4208,10 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4254,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -4287,7 +4292,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4308,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -4335,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -4365,10 +4370,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4389,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -4416,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -4446,16 +4451,16 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -4470,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -4497,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -4527,16 +4532,16 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -4551,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -4578,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -4605,7 +4610,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4679,19 +4684,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -4718,13 +4723,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -4736,10 +4741,10 @@
         <v>5000</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -4766,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" t="s">
         <v>143</v>
       </c>
-      <c r="W2" t="s">
-        <v>145</v>
-      </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -4799,7 +4804,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4817,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4847,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" t="s">
         <v>143</v>
       </c>
-      <c r="W3" t="s">
-        <v>145</v>
-      </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4877,7 +4882,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>75</v>
@@ -4901,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -4928,13 +4933,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" t="s">
         <v>143</v>
       </c>
-      <c r="W4" t="s">
-        <v>145</v>
-      </c>
       <c r="X4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4958,7 +4963,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>76</v>
@@ -4982,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -5009,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
+        <v>141</v>
+      </c>
+      <c r="W5" t="s">
         <v>143</v>
       </c>
-      <c r="W5" t="s">
-        <v>145</v>
-      </c>
       <c r="X5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -5039,10 +5044,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5063,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -5090,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
+        <v>141</v>
+      </c>
+      <c r="W6" t="s">
         <v>143</v>
       </c>
-      <c r="W6" t="s">
-        <v>145</v>
-      </c>
       <c r="X6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -5120,10 +5125,10 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5144,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -5171,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W7" t="s">
         <v>143</v>
       </c>
-      <c r="W7" t="s">
-        <v>145</v>
-      </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -5201,10 +5206,10 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5225,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -5252,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" t="s">
         <v>143</v>
       </c>
-      <c r="W8" t="s">
-        <v>145</v>
-      </c>
       <c r="X8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -5282,16 +5287,16 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -5306,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -5333,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
+        <v>141</v>
+      </c>
+      <c r="W9" t="s">
         <v>143</v>
       </c>
-      <c r="W9" t="s">
-        <v>145</v>
-      </c>
       <c r="X9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -5387,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -5414,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" t="s">
         <v>143</v>
       </c>
-      <c r="W10" t="s">
-        <v>145</v>
-      </c>
       <c r="X10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235C60E-1925-4AB2-871E-5C9D62252D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D7B5A-49F4-4855-ACE5-88F6095627B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2775" yWindow="945" windowWidth="25575" windowHeight="14325" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="154">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -196,16 +196,6 @@
   </si>
   <si>
     <t>Or_Contest_090</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレートの王者選手権</t>
-    <rPh sb="7" eb="9">
-      <t>オウジャ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>センシュケン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -463,26 +453,6 @@
   </si>
   <si>
     <t>クワイットスノウ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>愛をテーマにしたチョコレート限定
-心あたたまる、愛にあふれたチョコレートを作ってください。</t>
-    <rPh sb="0" eb="1">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1116,45 +1086,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>鉱石お菓子限定※実装まだ
-トルマリン・アメジスト.. 様々な鉱石たちは、私たちを魅了してやみません。
-キラもの好きの大富豪がうなるお菓子を募集します♪</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ミリョウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お花をモチーフにしたお菓子※実装まだ
 お花をメインに使った華やかなお菓子を募集しています。</t>
     <rPh sb="1" eb="2">
@@ -1206,45 +1137,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>温かいお菓子限定※焼き菓子は除く
-アフォガード・シブーストなど..
-温かみのあるお菓子で、寒さを吹き飛ばしたい！</t>
-    <rPh sb="0" eb="1">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガシ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>サム</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1558,54 +1450,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ケーキ限定
-至高のお菓子の決定戦
-賞品には、エデンのレシピを進呈します。</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自由課題
-至高のデザインお菓子の決定戦
-賞品には、エデンのレシピを進呈します。</t>
-    <rPh sb="0" eb="4">
-      <t>ジユウカダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ケッテイセン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>至高のチョコレートの決定戦
 賞品には、エデンのレシピを進呈します。</t>
     <rPh sb="0" eb="2">
@@ -1619,6 +1463,229 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>シンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デザインお菓子コンテスト</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+至高のデザインお菓子の決定戦</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケッテイセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石お菓子限定※実装まだ
+エメラルド・サファイア.. 美しい石は、私たちを魅了してやみません。
+キラもの好きの大富豪がうなるお菓子を募集します♪</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ限定
+お菓子の世界決定戦
+優勝者には、エデンのレシピを進呈します。人気のケーキを決める楽しい大会です。ぜひご応募を！</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ユウショウシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>オウボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>愛をテーマにしたチョコレート限定
+心あたたまる、愛にあふれたチョコレートを、お届けください。</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢見るチョコレート選手権</t>
+    <rPh sb="0" eb="2">
+      <t>ユメミ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センシュケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かいお菓子限定※焼き菓子は除く
+アフォガード・シブーストなど..
+温かみのあるお菓子を募集しています。疲れた体とこころを癒してください。</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカデミー至高のお菓子の決定戦
+トーナメント形式3回戦。各回ごとにお題があり。
+優勝者には、エデンのレシピを進呈します。至高の一品をお待ちしております！</t>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクカイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ユウショウシャ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シンテイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イッピン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2021,7 +2088,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2062,10 +2129,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -2095,19 +2162,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -2134,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2182,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" t="s">
         <v>132</v>
       </c>
-      <c r="W2" t="s">
-        <v>136</v>
-      </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -2215,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2263,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>21</v>
@@ -2293,10 +2360,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2344,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="X4" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -2371,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2425,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>21</v>
@@ -2455,10 +2522,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2506,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W6" t="s">
         <v>132</v>
       </c>
-      <c r="W6" t="s">
-        <v>136</v>
-      </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>24</v>
@@ -2536,10 +2603,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2587,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" t="s">
         <v>132</v>
       </c>
-      <c r="W7" t="s">
-        <v>136</v>
-      </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -2617,10 +2684,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2668,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" t="s">
         <v>132</v>
       </c>
-      <c r="W8" t="s">
-        <v>136</v>
-      </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -2698,10 +2765,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2749,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" t="s">
         <v>132</v>
       </c>
-      <c r="W9" t="s">
-        <v>136</v>
-      </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -2779,10 +2846,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2830,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
+        <v>128</v>
+      </c>
+      <c r="W10" t="s">
         <v>132</v>
       </c>
-      <c r="W10" t="s">
-        <v>136</v>
-      </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -2860,10 +2927,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2911,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" t="s">
         <v>132</v>
       </c>
-      <c r="W11" t="s">
-        <v>136</v>
-      </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>21</v>
@@ -2937,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2979,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -3012,19 +3079,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3045,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3066,7 +3133,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -3099,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3126,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3147,10 +3214,10 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3180,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -3207,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3228,10 +3295,10 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -3261,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -3288,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3312,7 +3379,7 @@
         <v>300</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -3333,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3342,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -3369,13 +3436,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3393,13 +3460,13 @@
         <v>500</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>10</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3423,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -3450,13 +3517,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3474,13 +3541,13 @@
         <v>1000</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>10</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3495,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3504,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -3531,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3555,7 +3622,7 @@
         <v>1500</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>15</v>
@@ -3576,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3585,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -3612,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3636,13 +3703,13 @@
         <v>2000</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>20</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3657,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3666,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -3693,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3717,7 +3784,7 @@
         <v>5000</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>35</v>
@@ -3747,13 +3814,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -3771,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A66AAA5-0C8D-4F8A-9A3B-33AFE45A42B1}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3815,10 +3882,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -3848,19 +3915,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3881,10 +3948,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -3935,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" t="s">
         <v>140</v>
       </c>
-      <c r="W2" t="s">
-        <v>144</v>
-      </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3952,7 +4019,7 @@
     </row>
     <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+2000</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-2+2000</f>
         <v>2001</v>
       </c>
       <c r="B3">
@@ -3962,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3986,7 +4053,7 @@
         <v>500</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4016,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" t="s">
         <v>140</v>
       </c>
-      <c r="W3" t="s">
-        <v>144</v>
-      </c>
       <c r="X3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4043,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4067,7 +4134,7 @@
         <v>500</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -4097,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" t="s">
         <v>140</v>
       </c>
-      <c r="W4" t="s">
-        <v>144</v>
-      </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4124,13 +4191,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4148,7 +4215,7 @@
         <v>1200</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>20</v>
@@ -4178,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W5" t="s">
         <v>140</v>
       </c>
-      <c r="W5" t="s">
-        <v>144</v>
-      </c>
       <c r="X5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -4205,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4229,7 +4296,7 @@
         <v>500</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4259,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W6" t="s">
         <v>140</v>
       </c>
-      <c r="W6" t="s">
-        <v>144</v>
-      </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -4286,13 +4353,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4310,7 +4377,7 @@
         <v>1000</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>25</v>
@@ -4340,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W7" t="s">
         <v>140</v>
       </c>
-      <c r="W7" t="s">
-        <v>144</v>
-      </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -4367,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4391,7 +4458,7 @@
         <v>2000</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M8">
         <v>30</v>
@@ -4421,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
+        <v>136</v>
+      </c>
+      <c r="W8" t="s">
         <v>140</v>
       </c>
-      <c r="W8" t="s">
-        <v>144</v>
-      </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -4448,13 +4515,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4472,7 +4539,7 @@
         <v>2000</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -4502,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
+        <v>136</v>
+      </c>
+      <c r="W9" t="s">
         <v>140</v>
       </c>
-      <c r="W9" t="s">
-        <v>144</v>
-      </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -4529,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4553,7 +4620,7 @@
         <v>3000</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>38</v>
@@ -4583,18 +4650,99 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" t="s">
         <v>140</v>
       </c>
-      <c r="W10" t="s">
-        <v>144</v>
-      </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>30700</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>3000</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" t="s">
+        <v>140</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11">
         <v>1</v>
       </c>
     </row>
@@ -4609,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4651,10 +4799,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -4684,19 +4832,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -4717,13 +4865,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4738,7 +4886,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L2">
         <v>300</v>
@@ -4771,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -4798,13 +4946,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4822,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4852,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -4879,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4903,7 +5051,7 @@
         <v>800</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -4933,13 +5081,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -4960,13 +5108,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4984,7 +5132,7 @@
         <v>1000</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>30</v>
@@ -5014,13 +5162,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -5041,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5065,7 +5213,7 @@
         <v>1200</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>40</v>
@@ -5095,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -5122,13 +5270,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5146,7 +5294,7 @@
         <v>1000</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>50</v>
@@ -5176,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -5203,13 +5351,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5227,7 +5375,7 @@
         <v>700</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>55</v>
@@ -5257,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -5284,13 +5432,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5308,7 +5456,7 @@
         <v>1500</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M9">
         <v>60</v>
@@ -5338,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -5365,13 +5513,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5389,7 +5537,7 @@
         <v>3000</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M10">
         <v>65</v>
@@ -5419,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D7B5A-49F4-4855-ACE5-88F6095627B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571D55D-12AA-455B-B086-D2790B623BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="945" windowWidth="25575" windowHeight="14325" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
         <v>12</v>
@@ -3004,7 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615D1EB-7EB0-40A6-B71A-0773034D7CD2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571D55D-12AA-455B-B086-D2790B623BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A4546-A81D-45A3-B626-AE48B045AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -2087,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4757,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestStartListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A4546-A81D-45A3-B626-AE48B045AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363CF73D-93FC-4647-8DDA-C1BB3BF1703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25560" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Or_Contest_001" sheetId="1" r:id="rId1"/>
@@ -1115,32 +1115,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゆきをテーマにしたお菓子※実装まだ
-冬の名物となるような、雪国のお菓子を募集しています。</t>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>フユ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>メイブツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ユキクニ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ContestVictory</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1478,26 +1452,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自由課題
-至高のデザインお菓子の決定戦</t>
-    <rPh sb="0" eb="2">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ケッテイセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>鉱石お菓子限定※実装まだ
 エメラルド・サファイア.. 美しい石は、私たちを魅了してやみません。
 キラもの好きの大富豪がうなるお菓子を募集します♪</t>
@@ -1686,6 +1640,77 @@
     </rPh>
     <rPh sb="67" eb="68">
       <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題
+至高のデザインお菓子の決定戦
+見た目が洗練された、美しいお菓子を募集致します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケッテイセン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センレン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雪国にマッチするお菓子※実装まだ
+冬の名物となるような、雪国のお菓子を募集しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ユキクニ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>メイブツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユキクニ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ボシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2088,7 +2113,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2162,19 +2187,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -2249,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" t="s">
         <v>132</v>
-      </c>
-      <c r="X2" t="s">
-        <v>133</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -2282,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2330,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>21</v>
@@ -2411,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -2492,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>21</v>
@@ -2573,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>24</v>
@@ -2654,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -2687,7 +2712,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2735,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -2768,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2816,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -2897,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -2978,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>21</v>
@@ -3005,7 +3030,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3079,19 +3104,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -3118,7 +3143,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3166,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -3247,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -3328,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -3409,13 +3434,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -3460,7 +3485,7 @@
         <v>500</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -3490,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -3541,7 +3566,7 @@
         <v>1000</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -3571,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -3652,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -3703,7 +3728,7 @@
         <v>2000</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M9">
         <v>20</v>
@@ -3733,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -3784,7 +3809,7 @@
         <v>5000</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10">
         <v>35</v>
@@ -3814,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
@@ -3841,923 +3866,6 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="24" width="6.75" customWidth="1"/>
-    <col min="25" max="25" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>ROW()-2+2000</f>
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>31</v>
-      </c>
-      <c r="K2">
-        <v>5000</v>
-      </c>
-      <c r="L2">
-        <v>200</v>
-      </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>99</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>10</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>136</v>
-      </c>
-      <c r="W2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f t="shared" ref="A3:A11" si="0">ROW()-2+2000</f>
-        <v>2001</v>
-      </c>
-      <c r="B3">
-        <v>30000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>99</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" t="s">
-        <v>140</v>
-      </c>
-      <c r="X3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>2002</v>
-      </c>
-      <c r="B4">
-        <v>30100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>99</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" t="s">
-        <v>140</v>
-      </c>
-      <c r="X4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>2003</v>
-      </c>
-      <c r="B5">
-        <v>30200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>1200</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>99</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>136</v>
-      </c>
-      <c r="W5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>2004</v>
-      </c>
-      <c r="B6">
-        <v>30300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>99</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
-        <v>136</v>
-      </c>
-      <c r="W6" t="s">
-        <v>140</v>
-      </c>
-      <c r="X6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-      <c r="B7">
-        <v>30400</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>25</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>99</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
-        <v>136</v>
-      </c>
-      <c r="W7" t="s">
-        <v>140</v>
-      </c>
-      <c r="X7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2006</v>
-      </c>
-      <c r="B8">
-        <v>30500</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>2000</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>99</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8" t="s">
-        <v>140</v>
-      </c>
-      <c r="X8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="B9">
-        <v>30600</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>2000</v>
-      </c>
-      <c r="L9">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>99</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>136</v>
-      </c>
-      <c r="W9" t="s">
-        <v>140</v>
-      </c>
-      <c r="X9" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>2008</v>
-      </c>
-      <c r="B10">
-        <v>30700</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>3000</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>38</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>99</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" t="s">
-        <v>140</v>
-      </c>
-      <c r="X10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>2009</v>
-      </c>
-      <c r="B11">
-        <v>30700</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>3000</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>38</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>99</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" t="s">
-        <v>140</v>
-      </c>
-      <c r="X11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
-  <dimension ref="A1:Z10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4832,19 +3940,936 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+2000</f>
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>5000</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>99</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A11" si="0">ROW()-2+2000</f>
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>30000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>30100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>30200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>1200</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>30300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>99</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>30400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>30500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>30600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>30700</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>3000</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>38</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>30700</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>3000</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990FE8C-49B4-4F17-805B-7287A7C6D5E2}">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="24" width="6.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -4871,7 +4896,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4919,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>20</v>
@@ -4952,7 +4977,7 @@
         <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5000,13 +5025,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
@@ -5033,7 +5058,7 @@
         <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -5081,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>24</v>
@@ -5162,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>21</v>
@@ -5213,7 +5238,7 @@
         <v>1200</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>40</v>
@@ -5243,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>21</v>
@@ -5273,10 +5298,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5324,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>21</v>
@@ -5375,7 +5400,7 @@
         <v>700</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>55</v>
@@ -5405,13 +5430,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>21</v>
@@ -5456,7 +5481,7 @@
         <v>1500</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9">
         <v>60</v>
@@ -5486,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>21</v>
@@ -5516,7 +5541,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>35</v>
@@ -5537,7 +5562,7 @@
         <v>3000</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10">
         <v>65</v>
@@ -5567,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>21</v>
